--- a/105-04448-S1_StrainResult.xlsx
+++ b/105-04448-S1_StrainResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB05AAD-1AF8-43AD-A3FD-7FFE943ABC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC2B88-9AE7-4BBC-9A7C-79DD8B1C8E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-15915" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1485" windowWidth="18240" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={BF0344E5-84FC-4B7D-A3EF-DBA829A32A2B}</author>
     <author>tc={23B54F7D-CB34-43D1-907B-CCA931D2E41E}</author>
     <author>tc={DB9BE472-6DE9-43DA-88F4-3045EA5881DF}</author>
     <author>tc={CA74286A-04EB-4EDE-A157-E15C0156EADC}</author>
@@ -34,7 +35,7 @@
     <author>tc={92CFDAB5-0B19-4F28-9797-ABBE33EEDA3E}</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{23B54F7D-CB34-43D1-907B-CCA931D2E41E}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{BF0344E5-84FC-4B7D-A3EF-DBA829A32A2B}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -42,7 +43,7 @@
     Underfill</t>
       </text>
     </comment>
-    <comment ref="V3" authorId="1" shapeId="0" xr:uid="{DB9BE472-6DE9-43DA-88F4-3045EA5881DF}">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{23B54F7D-CB34-43D1-907B-CCA931D2E41E}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -50,7 +51,15 @@
     Underfill</t>
       </text>
     </comment>
-    <comment ref="F4" authorId="2" shapeId="0" xr:uid="{CA74286A-04EB-4EDE-A157-E15C0156EADC}">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{DB9BE472-6DE9-43DA-88F4-3045EA5881DF}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    Underfill</t>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="3" shapeId="0" xr:uid="{CA74286A-04EB-4EDE-A157-E15C0156EADC}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -58,7 +67,7 @@
     Change from BGA to QFN</t>
       </text>
     </comment>
-    <comment ref="G4" authorId="3" shapeId="0" xr:uid="{B66ED48E-2012-485E-BAAF-857E5F2CE5D2}">
+    <comment ref="G4" authorId="4" shapeId="0" xr:uid="{B66ED48E-2012-485E-BAAF-857E5F2CE5D2}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -66,7 +75,7 @@
     Change from BGA to QFN</t>
       </text>
     </comment>
-    <comment ref="H5" authorId="4" shapeId="0" xr:uid="{9F137936-8B2A-4761-BF4F-15A5115A6EE7}">
+    <comment ref="H5" authorId="5" shapeId="0" xr:uid="{9F137936-8B2A-4761-BF4F-15A5115A6EE7}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -74,7 +83,7 @@
     Change from BGA to QFN</t>
       </text>
     </comment>
-    <comment ref="P5" authorId="5" shapeId="0" xr:uid="{92CFDAB5-0B19-4F28-9797-ABBE33EEDA3E}">
+    <comment ref="P5" authorId="6" shapeId="0" xr:uid="{92CFDAB5-0B19-4F28-9797-ABBE33EEDA3E}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -376,7 +385,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -458,15 +467,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -775,6 +784,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="W2" dT="2023-08-16T03:09:05.02" personId="{6C3D1143-8604-4DE4-A283-2B490B09D1BE}" id="{BF0344E5-84FC-4B7D-A3EF-DBA829A32A2B}">
+    <text>Underfill</text>
+  </threadedComment>
   <threadedComment ref="M3" dT="2023-07-24T02:58:55.76" personId="{6C3D1143-8604-4DE4-A283-2B490B09D1BE}" id="{23B54F7D-CB34-43D1-907B-CCA931D2E41E}">
     <text>Underfill</text>
   </threadedComment>
@@ -800,16 +812,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,8 +895,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -899,21 +911,21 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>0</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="5">
         <v>0</v>
       </c>
       <c r="X2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
@@ -939,8 +951,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
@@ -960,8 +972,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
@@ -978,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1001,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1042,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1102,9 +1114,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1139,7 +1151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15299</v>
       </c>
@@ -1174,7 +1186,7 @@
         <v>45124.52847222222</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15299</v>
       </c>
@@ -1209,7 +1221,7 @@
         <v>45124.52847222222</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15299</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>45124.52847222222</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15299</v>
       </c>
@@ -1279,7 +1291,7 @@
         <v>45124.52847222222</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15299</v>
       </c>
@@ -1314,7 +1326,7 @@
         <v>45124.52847222222</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15301</v>
       </c>
@@ -1349,7 +1361,7 @@
         <v>45124.686805555553</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15301</v>
       </c>
@@ -1384,7 +1396,7 @@
         <v>45124.686805555553</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15301</v>
       </c>
@@ -1419,7 +1431,7 @@
         <v>45124.686805555553</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15301</v>
       </c>
@@ -1454,7 +1466,7 @@
         <v>45124.686805555553</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15301</v>
       </c>
@@ -1489,7 +1501,7 @@
         <v>45124.686805555553</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15185</v>
       </c>
@@ -1524,7 +1536,7 @@
         <v>45089.441666666673</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15185</v>
       </c>
@@ -1559,7 +1571,7 @@
         <v>45089.441666666673</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15185</v>
       </c>
@@ -1594,7 +1606,7 @@
         <v>45089.441666666673</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15172</v>
       </c>
@@ -1629,7 +1641,7 @@
         <v>45083.547222222223</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15172</v>
       </c>
@@ -1664,7 +1676,7 @@
         <v>45083.547222222223</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15172</v>
       </c>
@@ -1699,7 +1711,7 @@
         <v>45083.547222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15172</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>45083.547222222223</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15172</v>
       </c>
@@ -1769,7 +1781,7 @@
         <v>45083.547222222223</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15172</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>45083.547222222223</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15172</v>
       </c>
@@ -1839,7 +1851,7 @@
         <v>45083.547222222223</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15172</v>
       </c>
@@ -1874,7 +1886,7 @@
         <v>45083.547222222223</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15172</v>
       </c>
@@ -1909,7 +1921,7 @@
         <v>45083.547222222223</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15172</v>
       </c>
@@ -1944,7 +1956,7 @@
         <v>45083.547222222223</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15164</v>
       </c>
@@ -1979,7 +1991,7 @@
         <v>45080.645833333343</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15164</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>45080.645833333343</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15164</v>
       </c>
@@ -2049,7 +2061,7 @@
         <v>45080.645833333343</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15164</v>
       </c>
@@ -2084,7 +2096,7 @@
         <v>45080.645833333343</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15164</v>
       </c>
@@ -2119,7 +2131,7 @@
         <v>45080.645833333343</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15164</v>
       </c>
@@ -2154,7 +2166,7 @@
         <v>45080.645833333343</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>15164</v>
       </c>
@@ -2189,7 +2201,7 @@
         <v>45080.645833333343</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15164</v>
       </c>
@@ -2224,7 +2236,7 @@
         <v>45080.645833333343</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15164</v>
       </c>
@@ -2259,7 +2271,7 @@
         <v>45080.645833333343</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15164</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>45080.645833333343</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14905</v>
       </c>
@@ -2329,7 +2341,7 @@
         <v>44972.765972222223</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14905</v>
       </c>
@@ -2364,7 +2376,7 @@
         <v>44972.765972222223</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14906</v>
       </c>
@@ -2399,7 +2411,7 @@
         <v>44972.768750000003</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14906</v>
       </c>
@@ -2434,7 +2446,7 @@
         <v>44972.768750000003</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14906</v>
       </c>
@@ -2473,7 +2485,7 @@
   <autoFilter ref="A1:K39" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="I305"/>
+        <filter val="I802"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/105-04448-S1_StrainResult.xlsx
+++ b/105-04448-S1_StrainResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC2B88-9AE7-4BBC-9A7C-79DD8B1C8E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469FD9FF-B553-4B41-B386-5CA2AEDD4615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1485" windowWidth="18240" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,9 @@
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
 註解:
-    Undefill may affect terminal</t>
+    Undefill may affect terminal
+回覆:
+    DEE promise move it to I509 nearby, this location have low strain risk</t>
       </text>
     </comment>
   </commentList>
@@ -96,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="95">
   <si>
     <t>station</t>
   </si>
@@ -378,6 +380,10 @@
   </si>
   <si>
     <t>368.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">扣Display Connector(用105-04448-S1V6線板驗證) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,12 +414,6 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -805,6 +805,9 @@
   <threadedComment ref="P5" dT="2023-07-24T03:00:42.62" personId="{6C3D1143-8604-4DE4-A283-2B490B09D1BE}" id="{92CFDAB5-0B19-4F28-9797-ABBE33EEDA3E}">
     <text>Undefill may affect terminal</text>
   </threadedComment>
+  <threadedComment ref="P5" dT="2023-08-18T01:13:23.33" personId="{6C3D1143-8604-4DE4-A283-2B490B09D1BE}" id="{E491B977-AB0C-4DD9-A5B6-6732EEE17DBE}" parentId="{92CFDAB5-0B19-4F28-9797-ABBE33EEDA3E}">
+    <text>DEE promise move it to I509 nearby, this location have low strain risk</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -812,13 +815,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -900,7 +911,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
@@ -1291,7 +1302,7 @@
         <v>45124.52847222222</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15299</v>
       </c>
@@ -1466,7 +1477,7 @@
         <v>45124.686805555553</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15301</v>
       </c>
@@ -1816,7 +1827,7 @@
         <v>45083.547222222223</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15172</v>
       </c>
@@ -1851,7 +1862,7 @@
         <v>45083.547222222223</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15172</v>
       </c>
@@ -2166,7 +2177,7 @@
         <v>45080.645833333343</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>15164</v>
       </c>
@@ -2201,7 +2212,7 @@
         <v>45080.645833333343</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15164</v>
       </c>
@@ -2485,7 +2496,7 @@
   <autoFilter ref="A1:K39" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="I802"/>
+        <filter val="I701"/>
       </filters>
     </filterColumn>
   </autoFilter>
